--- a/src/mro/templates.xlsx
+++ b/src/mro/templates.xlsx
@@ -195,9 +195,6 @@
     <t>$prefix molecule with $haplotype haplotype</t>
   </si>
   <si>
-    <t>serotype-molecule</t>
-  </si>
-  <si>
     <t>$class molecule with serotype</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Mutant Of</t>
+  </si>
+  <si>
+    <t>serotype-molecules</t>
   </si>
 </sst>
 </file>
@@ -727,7 +727,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -779,7 +779,7 @@
         <v>53</v>
       </c>
       <c r="M1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1357,13 +1357,13 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
@@ -1401,13 +1401,13 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
         <v>18</v>
@@ -1425,30 +1425,30 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -1460,13 +1460,13 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>

--- a/src/mro/templates.xlsx
+++ b/src/mro/templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="17240" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="800" yWindow="0" windowWidth="17240" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
   <si>
     <t>Branch</t>
   </si>
@@ -725,9 +725,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1371,8 +1371,9 @@
       <c r="F28" t="s">
         <v>55</v>
       </c>
-      <c r="L28" t="s">
-        <v>26</v>
+      <c r="L28" t="str">
+        <f>C9</f>
+        <v>$class serotype</v>
       </c>
     </row>
     <row r="29" spans="1:12">

--- a/src/mro/templates.xlsx
+++ b/src/mro/templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="0" windowWidth="17240" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="17240" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="75">
   <si>
     <t>Branch</t>
   </si>
@@ -223,6 +223,27 @@
   </si>
   <si>
     <t>serotype-molecules</t>
+  </si>
+  <si>
+    <t>IEDB Label</t>
+  </si>
+  <si>
+    <t>$prefix-$locus</t>
+  </si>
+  <si>
+    <t>$prefix-$chain-ii-locus</t>
+  </si>
+  <si>
+    <t>$molecule</t>
+  </si>
+  <si>
+    <t>$haplotype</t>
+  </si>
+  <si>
+    <t>$short-class</t>
+  </si>
+  <si>
+    <t>$prefix-$serotype</t>
   </si>
 </sst>
 </file>
@@ -271,8 +292,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -335,7 +366,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -365,6 +396,11 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -394,6 +430,11 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -723,11 +764,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -735,13 +776,14 @@
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -752,37 +794,40 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>53</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -792,14 +837,14 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -809,18 +854,18 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <f>C2</f>
         <v>$class locus</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -830,15 +875,15 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <f>C3</f>
         <v>$taxon-label $class locus</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -848,18 +893,18 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <f>C3</f>
         <v>$taxon-label $class locus</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -869,17 +914,17 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -889,17 +934,17 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -909,15 +954,15 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="str">
+      <c r="G8" t="str">
         <f>C7</f>
         <v>$taxon-label haplotype</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -927,14 +972,14 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -944,18 +989,18 @@
       <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="str">
+      <c r="G10" t="str">
         <f>C9</f>
         <v>$class serotype</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -965,18 +1010,18 @@
       <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="str">
+      <c r="G11" t="str">
         <f>C10</f>
         <v>$taxon-label $class serotype</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -986,18 +1031,18 @@
       <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" t="str">
+      <c r="G12" t="str">
         <f>C10</f>
         <v>$taxon-label $class serotype</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1007,18 +1052,18 @@
       <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>8</v>
       </c>
-      <c r="F13" t="str">
+      <c r="G13" t="str">
         <f>C12</f>
         <v>$prefix-$locus serotype</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1028,18 +1073,18 @@
       <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>34</v>
       </c>
-      <c r="H14" t="str">
+      <c r="I14" t="str">
         <f>C2</f>
         <v>$class locus</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1049,18 +1094,18 @@
       <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>34</v>
       </c>
-      <c r="H15" t="str">
-        <f t="shared" ref="H15:H17" si="0">C3</f>
+      <c r="I15" t="str">
+        <f t="shared" ref="I15:I17" si="0">C3</f>
         <v>$taxon-label $class locus</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1070,18 +1115,18 @@
       <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>34</v>
       </c>
-      <c r="H16" t="str">
+      <c r="I16" t="str">
         <f t="shared" si="0"/>
         <v>$prefix-$chain-i-locus locus</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1091,18 +1136,18 @@
       <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>34</v>
       </c>
-      <c r="H17" t="str">
+      <c r="I17" t="str">
         <f t="shared" si="0"/>
         <v>$prefix-$chain-ii-locus locus</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1112,15 +1157,15 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>8</v>
       </c>
-      <c r="F18" t="str">
+      <c r="G18" t="str">
         <f>C16</f>
         <v>$prefix-$chain-i-locus chain</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1130,15 +1175,15 @@
       <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>8</v>
       </c>
-      <c r="F19" t="str">
+      <c r="G19" t="str">
         <f>C17</f>
         <v>$prefix-$chain-ii-locus chain</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1148,14 +1193,17 @@
       <c r="C20" t="s">
         <v>41</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
         <v>8</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1165,18 +1213,21 @@
       <c r="C21" t="s">
         <v>43</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
         <v>18</v>
       </c>
-      <c r="F21" t="str">
+      <c r="G21" t="str">
         <f>C20</f>
         <v>$class molecule</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1187,27 +1238,30 @@
         <v>44</v>
       </c>
       <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>18</v>
       </c>
-      <c r="F22" t="str">
+      <c r="G22" t="str">
         <f>C20</f>
         <v>$class molecule</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>11</v>
       </c>
-      <c r="I22" t="str">
+      <c r="J22" t="str">
         <f>C16</f>
         <v>$prefix-$chain-i-locus chain</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1218,28 +1272,31 @@
         <v>44</v>
       </c>
       <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
         <v>49</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>18</v>
       </c>
-      <c r="F23" t="str">
+      <c r="G23" t="str">
         <f>C20</f>
         <v>$class molecule</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>11</v>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" t="str">
         <f>C16</f>
         <v>$prefix-$chain-i-locus chain</v>
       </c>
-      <c r="J23" t="str">
+      <c r="K23" t="str">
         <f>C17</f>
         <v>$prefix-$chain-ii-locus chain</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1250,28 +1307,31 @@
         <v>50</v>
       </c>
       <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
         <v>22</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>18</v>
       </c>
-      <c r="F24" t="str">
+      <c r="G24" t="str">
         <f>C20</f>
         <v>$class molecule</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>11</v>
       </c>
-      <c r="I24" t="str">
+      <c r="J24" t="str">
         <f>C16</f>
         <v>$prefix-$chain-i-locus chain</v>
       </c>
-      <c r="J24" t="str">
+      <c r="K24" t="str">
         <f>C17</f>
         <v>$prefix-$chain-ii-locus chain</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1281,34 +1341,37 @@
       <c r="C25" t="s">
         <v>51</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s">
         <v>18</v>
       </c>
-      <c r="F25" t="str">
+      <c r="G25" t="str">
         <f>C20</f>
         <v>$class molecule</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>11</v>
       </c>
-      <c r="I25" t="str">
+      <c r="J25" t="str">
         <f>C18</f>
         <v>$chain-i chain</v>
       </c>
-      <c r="J25" t="str">
+      <c r="K25" t="str">
         <f>C19</f>
         <v>$chain-ii chain</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f>C8</f>
         <v>$haplotype haplotype</v>
       </c>
-      <c r="L25" t="str">
+      <c r="M25" t="str">
         <f>C11</f>
         <v>$prefix-$serotype serotype</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1318,20 +1381,23 @@
       <c r="C26" t="s">
         <v>56</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
         <v>18</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>55</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>11</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1341,21 +1407,24 @@
       <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
         <v>18</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>55</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>11</v>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <f>C8</f>
         <v>$haplotype haplotype</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -1365,18 +1434,21 @@
       <c r="C28" t="s">
         <v>58</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
         <v>18</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>55</v>
       </c>
-      <c r="L28" t="str">
+      <c r="M28" t="str">
         <f>C9</f>
         <v>$class serotype</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -1386,21 +1458,24 @@
       <c r="C29" t="s">
         <v>59</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
         <v>18</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>55</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>11</v>
       </c>
-      <c r="L29" t="str">
+      <c r="M29" t="str">
         <f>C10</f>
         <v>$taxon-label $class serotype</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -1410,21 +1485,24 @@
       <c r="C30" t="s">
         <v>60</v>
       </c>
-      <c r="E30" t="s">
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
         <v>18</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>55</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>11</v>
       </c>
-      <c r="L30" t="str">
+      <c r="M30" t="str">
         <f>C11</f>
         <v>$prefix-$serotype serotype</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -1434,14 +1512,17 @@
       <c r="C31" t="s">
         <v>62</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" t="s">
         <v>8</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -1451,15 +1532,18 @@
       <c r="C32" t="s">
         <v>63</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
         <v>8</v>
       </c>
-      <c r="F32" t="str">
+      <c r="G32" t="str">
         <f>C31</f>
         <v>mutant $class molecule</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -1469,14 +1553,17 @@
       <c r="C33" t="s">
         <v>64</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>8</v>
       </c>
-      <c r="F33" t="str">
+      <c r="G33" t="str">
         <f>C32</f>
         <v>mutant $taxon-label $class molecule</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>51</v>
       </c>
     </row>

--- a/src/mro/templates.xlsx
+++ b/src/mro/templates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="76">
   <si>
     <t>Branch</t>
   </si>
@@ -84,15 +84,6 @@
     <t>$haplotype haplotype</t>
   </si>
   <si>
-    <t>not special locus?</t>
-  </si>
-  <si>
-    <t>special locus?</t>
-  </si>
-  <si>
-    <t>special locus parent</t>
-  </si>
-  <si>
     <t>serotypes</t>
   </si>
   <si>
@@ -244,6 +235,18 @@
   </si>
   <si>
     <t>$prefix-$serotype</t>
+  </si>
+  <si>
+    <t>not sublocus?</t>
+  </si>
+  <si>
+    <t>sublocus?</t>
+  </si>
+  <si>
+    <t>special chain-ii-locus parent</t>
+  </si>
+  <si>
+    <t>special chain-i-locus parent</t>
   </si>
 </sst>
 </file>
@@ -292,8 +295,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -366,7 +375,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -401,6 +410,9 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -435,6 +447,9 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -764,11 +779,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -794,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -812,19 +827,19 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -875,6 +890,9 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
@@ -894,7 +912,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -912,36 +930,36 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -949,87 +967,86 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="str">
-        <f>C7</f>
-        <v>$taxon-label haplotype</v>
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>
-      <c r="G9" t="s">
-        <v>26</v>
+      <c r="G9" t="str">
+        <f>C8</f>
+        <v>$taxon-label haplotype</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="str">
-        <f>C9</f>
-        <v>$class serotype</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G11" t="str">
         <f>C10</f>
-        <v>$taxon-label $class serotype</v>
+        <v>$class serotype</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
@@ -1038,533 +1055,554 @@
         <v>8</v>
       </c>
       <c r="G12" t="str">
-        <f>C10</f>
+        <f>C11</f>
         <v>$taxon-label $class serotype</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
       </c>
       <c r="G13" t="str">
-        <f>C12</f>
-        <v>$prefix-$locus serotype</v>
+        <f>C11</f>
+        <v>$taxon-label $class serotype</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="str">
+        <f>C13</f>
+        <v>$prefix-$locus serotype</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" t="str">
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="str">
         <f>C2</f>
         <v>$class locus</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" ref="I15:I17" si="0">C3</f>
-        <v>$taxon-label $class locus</v>
-      </c>
-    </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I16" t="str">
+        <f t="shared" ref="I16:I18" si="0">C3</f>
+        <v>$taxon-label $class locus</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="str">
         <f t="shared" si="0"/>
         <v>$prefix-$chain-i-locus locus</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17">
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" t="str">
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="str">
         <f t="shared" si="0"/>
         <v>$prefix-$chain-ii-locus locus</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" t="str">
-        <f>C16</f>
-        <v>$prefix-$chain-i-locus chain</v>
-      </c>
-    </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
       </c>
       <c r="G19" t="str">
         <f>C17</f>
-        <v>$prefix-$chain-ii-locus chain</v>
+        <v>$prefix-$chain-i-locus chain</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
       </c>
-      <c r="G20" t="s">
-        <v>42</v>
+      <c r="G20" t="str">
+        <f>C18</f>
+        <v>$prefix-$chain-ii-locus chain</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="str">
-        <f>C20</f>
-        <v>$class molecule</v>
-      </c>
-      <c r="H21" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
         <v>40</v>
       </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
       <c r="D22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="str">
-        <f>C20</f>
+        <f>C21</f>
         <v>$class molecule</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
       </c>
-      <c r="J22" t="str">
-        <f>C16</f>
-        <v>$prefix-$chain-i-locus chain</v>
-      </c>
-      <c r="K22" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
         <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" t="s">
-        <v>49</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
       </c>
       <c r="G23" t="str">
-        <f>C20</f>
+        <f>C21</f>
         <v>$class molecule</v>
       </c>
       <c r="H23" t="s">
         <v>11</v>
       </c>
       <c r="J23" t="str">
-        <f>C16</f>
+        <f>C17</f>
         <v>$prefix-$chain-i-locus chain</v>
       </c>
-      <c r="K23" t="str">
-        <f>C17</f>
-        <v>$prefix-$chain-ii-locus chain</v>
+      <c r="K23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
       </c>
       <c r="G24" t="str">
-        <f>C20</f>
+        <f>C21</f>
         <v>$class molecule</v>
       </c>
       <c r="H24" t="s">
         <v>11</v>
       </c>
       <c r="J24" t="str">
-        <f>C16</f>
+        <f>C17</f>
         <v>$prefix-$chain-i-locus chain</v>
       </c>
       <c r="K24" t="str">
-        <f>C17</f>
+        <f>C18</f>
         <v>$prefix-$chain-ii-locus chain</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
       </c>
       <c r="G25" t="str">
-        <f>C20</f>
+        <f>C21</f>
         <v>$class molecule</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
       </c>
       <c r="J25" t="str">
+        <f>C17</f>
+        <v>$prefix-$chain-i-locus chain</v>
+      </c>
+      <c r="K25" t="str">
         <f>C18</f>
-        <v>$chain-i chain</v>
-      </c>
-      <c r="K25" t="str">
-        <f>C19</f>
-        <v>$chain-ii chain</v>
-      </c>
-      <c r="L25" t="str">
-        <f>C8</f>
-        <v>$haplotype haplotype</v>
-      </c>
-      <c r="M25" t="str">
-        <f>C11</f>
-        <v>$prefix-$serotype serotype</v>
+        <v>$prefix-$chain-ii-locus chain</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
       </c>
-      <c r="G26" t="s">
-        <v>55</v>
+      <c r="G26" t="str">
+        <f>C21</f>
+        <v>$class molecule</v>
       </c>
       <c r="H26" t="s">
         <v>11</v>
       </c>
-      <c r="L26" t="s">
-        <v>19</v>
+      <c r="J26" t="str">
+        <f>C19</f>
+        <v>$chain-i chain</v>
+      </c>
+      <c r="K26" t="str">
+        <f>C20</f>
+        <v>$chain-ii chain</v>
+      </c>
+      <c r="L26" t="str">
+        <f>C9</f>
+        <v>$haplotype haplotype</v>
+      </c>
+      <c r="M26" t="str">
+        <f>C12</f>
+        <v>$prefix-$serotype serotype</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
       </c>
-      <c r="L27" t="str">
-        <f>C8</f>
-        <v>$haplotype haplotype</v>
+      <c r="L27" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>55</v>
-      </c>
-      <c r="M28" t="str">
+        <v>52</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" t="str">
         <f>C9</f>
-        <v>$class serotype</v>
+        <v>$haplotype haplotype</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="M29" t="str">
         <f>C10</f>
-        <v>$taxon-label $class serotype</v>
+        <v>$class serotype</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
         <v>11</v>
       </c>
       <c r="M30" t="str">
         <f>C11</f>
-        <v>$prefix-$serotype serotype</v>
+        <v>$taxon-label $class serotype</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>52</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" t="str">
+        <f>C12</f>
+        <v>$prefix-$serotype serotype</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
       </c>
-      <c r="G32" t="str">
-        <f>C31</f>
-        <v>mutant $class molecule</v>
+      <c r="G32" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
       </c>
       <c r="G33" t="str">
         <f>C32</f>
+        <v>mutant $class molecule</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="str">
+        <f>C33</f>
         <v>mutant $taxon-label $class molecule</v>
       </c>
-      <c r="N33" t="s">
-        <v>51</v>
+      <c r="N34" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/src/mro/templates.xlsx
+++ b/src/mro/templates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="85">
   <si>
     <t>Branch</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Beta-2-microglobulin chain</t>
   </si>
   <si>
-    <t>class II not special?</t>
-  </si>
-  <si>
     <t>$prefix-$chain-ii-locus molecule</t>
   </si>
   <si>
@@ -237,16 +234,46 @@
     <t>$prefix-$serotype</t>
   </si>
   <si>
-    <t>not sublocus?</t>
-  </si>
-  <si>
-    <t>sublocus?</t>
-  </si>
-  <si>
-    <t>special chain-ii-locus parent</t>
-  </si>
-  <si>
-    <t>special chain-i-locus parent</t>
+    <t>class</t>
+  </si>
+  <si>
+    <t>serotype</t>
+  </si>
+  <si>
+    <t>haplotype</t>
+  </si>
+  <si>
+    <t>locus</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>not prefix chain-i-locus?</t>
+  </si>
+  <si>
+    <t>not prefix chain-ii-locus?</t>
+  </si>
+  <si>
+    <t>chain-i sublocus parent</t>
+  </si>
+  <si>
+    <t>chain-ii sublocus parent</t>
+  </si>
+  <si>
+    <t>not chain-i sublocus?</t>
+  </si>
+  <si>
+    <t>not chain-ii sublocus?</t>
+  </si>
+  <si>
+    <t>chain-i sublocus?</t>
+  </si>
+  <si>
+    <t>chain-ii sublocus?</t>
+  </si>
+  <si>
+    <t>class II not sublocus?</t>
   </si>
 </sst>
 </file>
@@ -295,8 +322,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -375,7 +414,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -413,6 +452,12 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -450,6 +495,12 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -779,11 +830,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -791,14 +842,15 @@
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -809,40 +861,43 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -852,14 +907,14 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -869,18 +924,18 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <f>C2</f>
         <v>$class locus</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -890,18 +945,18 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>72</v>
-      </c>
       <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="str">
+      <c r="H4" t="str">
         <f>C3</f>
         <v>$taxon-label $class locus</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -911,18 +966,18 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>72</v>
-      </c>
       <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="str">
+      <c r="H5" t="str">
         <f>C3</f>
         <v>$taxon-label $class locus</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -932,17 +987,17 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>73</v>
-      </c>
       <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -952,17 +1007,17 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
-        <v>73</v>
-      </c>
       <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -972,17 +1027,17 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -992,15 +1047,15 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>8</v>
       </c>
-      <c r="G9" t="str">
+      <c r="H9" t="str">
         <f>C8</f>
         <v>$taxon-label haplotype</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1010,14 +1065,14 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>8</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1027,18 +1082,18 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" t="str">
+      <c r="H11" t="str">
         <f>C10</f>
         <v>$class serotype</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1048,18 +1103,18 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>8</v>
       </c>
-      <c r="G12" t="str">
+      <c r="H12" t="str">
         <f>C11</f>
         <v>$taxon-label $class serotype</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1069,18 +1124,18 @@
       <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>25</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>8</v>
       </c>
-      <c r="G13" t="str">
+      <c r="H13" t="str">
         <f>C11</f>
         <v>$taxon-label $class serotype</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1090,18 +1145,18 @@
       <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>8</v>
       </c>
-      <c r="G14" t="str">
+      <c r="H14" t="str">
         <f>C13</f>
         <v>$prefix-$locus serotype</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1111,18 +1166,18 @@
       <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>31</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <f>C2</f>
         <v>$class locus</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1132,18 +1187,18 @@
       <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>31</v>
       </c>
-      <c r="I16" t="str">
-        <f t="shared" ref="I16:I18" si="0">C3</f>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16:J18" si="0">C3</f>
         <v>$taxon-label $class locus</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1153,18 +1208,18 @@
       <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>31</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <f t="shared" si="0"/>
         <v>$prefix-$chain-i-locus locus</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1174,18 +1229,18 @@
       <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>31</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J18" t="str">
         <f t="shared" si="0"/>
         <v>$prefix-$chain-ii-locus locus</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1196,14 +1251,17 @@
         <v>35</v>
       </c>
       <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
         <v>8</v>
       </c>
-      <c r="G19" t="str">
+      <c r="H19" t="str">
         <f>C17</f>
         <v>$prefix-$chain-i-locus chain</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1214,14 +1272,17 @@
         <v>36</v>
       </c>
       <c r="F20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
         <v>8</v>
       </c>
-      <c r="G20" t="str">
+      <c r="H20" t="str">
         <f>C18</f>
         <v>$prefix-$chain-ii-locus chain</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1232,16 +1293,19 @@
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" t="s">
         <v>8</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1254,18 +1318,18 @@
       <c r="D22" t="s">
         <v>11</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>18</v>
       </c>
-      <c r="G22" t="str">
+      <c r="H22" t="str">
         <f>C21</f>
         <v>$class molecule</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1276,30 +1340,33 @@
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s">
         <v>44</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>18</v>
       </c>
-      <c r="G23" t="str">
+      <c r="H23" t="str">
         <f>C21</f>
         <v>$class molecule</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>11</v>
       </c>
-      <c r="J23" t="str">
+      <c r="K23" t="str">
         <f>C17</f>
         <v>$prefix-$chain-i-locus chain</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1310,31 +1377,34 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s">
         <v>18</v>
       </c>
-      <c r="G24" t="str">
+      <c r="H24" t="str">
         <f>C21</f>
         <v>$class molecule</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>11</v>
       </c>
-      <c r="J24" t="str">
+      <c r="K24" t="str">
         <f>C17</f>
         <v>$prefix-$chain-i-locus chain</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f>C18</f>
         <v>$prefix-$chain-ii-locus chain</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1342,34 +1412,37 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" t="s">
         <v>18</v>
       </c>
-      <c r="G25" t="str">
+      <c r="H25" t="str">
         <f>C21</f>
         <v>$class molecule</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>11</v>
       </c>
-      <c r="J25" t="str">
+      <c r="K25" t="str">
         <f>C17</f>
         <v>$prefix-$chain-i-locus chain</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f>C18</f>
         <v>$prefix-$chain-ii-locus chain</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1377,232 +1450,244 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" t="s">
         <v>18</v>
       </c>
-      <c r="G26" t="str">
+      <c r="H26" t="str">
         <f>C21</f>
         <v>$class molecule</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>11</v>
       </c>
-      <c r="J26" t="str">
+      <c r="K26" t="str">
         <f>C19</f>
         <v>$chain-i chain</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <f>C20</f>
         <v>$chain-ii chain</v>
       </c>
-      <c r="L26" t="str">
+      <c r="M26" t="str">
         <f>C9</f>
         <v>$haplotype haplotype</v>
       </c>
-      <c r="M26" t="str">
+      <c r="N26" t="str">
         <f>C12</f>
         <v>$prefix-$serotype serotype</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>18</v>
       </c>
-      <c r="G27" t="s">
-        <v>52</v>
-      </c>
       <c r="H27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" t="s">
         <v>11</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" t="s">
         <v>18</v>
       </c>
-      <c r="G28" t="s">
-        <v>52</v>
-      </c>
       <c r="H28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" t="s">
         <v>11</v>
       </c>
-      <c r="L28" t="str">
+      <c r="M28" t="str">
         <f>C9</f>
         <v>$haplotype haplotype</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" t="s">
         <v>18</v>
       </c>
-      <c r="G29" t="s">
-        <v>52</v>
-      </c>
-      <c r="M29" t="str">
+      <c r="H29" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" t="str">
         <f>C10</f>
         <v>$class serotype</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>18</v>
       </c>
-      <c r="G30" t="s">
-        <v>52</v>
-      </c>
       <c r="H30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" t="s">
         <v>11</v>
       </c>
-      <c r="M30" t="str">
+      <c r="N30" t="str">
         <f>C11</f>
         <v>$taxon-label $class serotype</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" t="s">
         <v>18</v>
       </c>
-      <c r="G31" t="s">
-        <v>52</v>
-      </c>
       <c r="H31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" t="s">
         <v>11</v>
       </c>
-      <c r="M31" t="str">
+      <c r="N31" t="str">
         <f>C12</f>
         <v>$prefix-$serotype serotype</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" t="s">
         <v>8</v>
       </c>
-      <c r="G32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="H32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>8</v>
       </c>
-      <c r="G33" t="str">
+      <c r="H33" t="str">
         <f>C32</f>
         <v>mutant $class molecule</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" t="s">
         <v>8</v>
       </c>
-      <c r="G34" t="str">
+      <c r="H34" t="str">
         <f>C33</f>
         <v>mutant $taxon-label $class molecule</v>
       </c>
-      <c r="N34" t="s">
-        <v>48</v>
+      <c r="O34" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/src/mro/templates.xlsx
+++ b/src/mro/templates.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="0" windowWidth="17240" windowHeight="15540" tabRatio="500"/>
@@ -135,18 +135,6 @@
     <t>molecules</t>
   </si>
   <si>
-    <t>$class molecule</t>
-  </si>
-  <si>
-    <t>MHC molecule</t>
-  </si>
-  <si>
-    <t>$taxon-label $class molecule</t>
-  </si>
-  <si>
-    <t>$prefix-$locus molecule</t>
-  </si>
-  <si>
     <t>Alpha Chain</t>
   </si>
   <si>
@@ -159,12 +147,6 @@
     <t>Beta-2-microglobulin chain</t>
   </si>
   <si>
-    <t>$prefix-$chain-ii-locus molecule</t>
-  </si>
-  <si>
-    <t>$molecule molecule</t>
-  </si>
-  <si>
     <t>With Haplotype</t>
   </si>
   <si>
@@ -177,36 +159,12 @@
     <t>protein complex</t>
   </si>
   <si>
-    <t>$taxon-label MHC molecule with haplotype</t>
-  </si>
-  <si>
-    <t>$prefix molecule with $haplotype haplotype</t>
-  </si>
-  <si>
-    <t>$class molecule with serotype</t>
-  </si>
-  <si>
-    <t>$taxon-label $class molecule with serotype</t>
-  </si>
-  <si>
-    <t>$prefix molecule with $serotype serotype</t>
-  </si>
-  <si>
     <t>mutant-molecules</t>
   </si>
   <si>
-    <t>mutant $class molecule</t>
-  </si>
-  <si>
-    <t>mutant $taxon-label $class molecule</t>
-  </si>
-  <si>
     <t>$label</t>
   </si>
   <si>
-    <t>mutant MHC molecule</t>
-  </si>
-  <si>
     <t>Mutant Of</t>
   </si>
   <si>
@@ -274,6 +232,48 @@
   </si>
   <si>
     <t>class II not sublocus?</t>
+  </si>
+  <si>
+    <t>MHC protein complex</t>
+  </si>
+  <si>
+    <t>mutant MHC protein complex</t>
+  </si>
+  <si>
+    <t>$taxon-label $class protein complex</t>
+  </si>
+  <si>
+    <t>$prefix-$locus protein complex</t>
+  </si>
+  <si>
+    <t>$prefix-$chain-ii-locus protein complex</t>
+  </si>
+  <si>
+    <t>$taxon-label MHC protein complex with haplotype</t>
+  </si>
+  <si>
+    <t>$prefix protein complex with $haplotype haplotype</t>
+  </si>
+  <si>
+    <t>$class protein complex with serotype</t>
+  </si>
+  <si>
+    <t>$taxon-label $class protein complex with serotype</t>
+  </si>
+  <si>
+    <t>$prefix protein complex with $serotype serotype</t>
+  </si>
+  <si>
+    <t>mutant $class protein complex</t>
+  </si>
+  <si>
+    <t>mutant $taxon-label $class protein complex</t>
+  </si>
+  <si>
+    <t>$class protein complex</t>
+  </si>
+  <si>
+    <t>$molecule protein complex</t>
   </si>
 </sst>
 </file>
@@ -832,16 +832,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -882,19 +882,19 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -946,7 +946,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -967,7 +967,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -988,13 +988,13 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1008,13 +1008,13 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1251,7 +1251,7 @@
         <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
@@ -1272,7 +1272,7 @@
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -1290,19 +1290,19 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1313,7 +1313,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="H22" t="str">
         <f>C21</f>
-        <v>$class molecule</v>
+        <v>$class protein complex</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -1337,23 +1337,23 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
         <v>18</v>
       </c>
       <c r="H23" t="str">
         <f>C21</f>
-        <v>$class molecule</v>
+        <v>$class protein complex</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -1363,7 +1363,7 @@
         <v>$prefix-$chain-i-locus chain</v>
       </c>
       <c r="L23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1374,23 +1374,23 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
         <v>18</v>
       </c>
       <c r="H24" t="str">
         <f>C21</f>
-        <v>$class molecule</v>
+        <v>$class protein complex</v>
       </c>
       <c r="I24" t="s">
         <v>11</v>
@@ -1412,23 +1412,23 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
         <v>18</v>
       </c>
       <c r="H25" t="str">
         <f>C21</f>
-        <v>$class molecule</v>
+        <v>$class protein complex</v>
       </c>
       <c r="I25" t="s">
         <v>11</v>
@@ -1450,20 +1450,20 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
         <v>18</v>
       </c>
       <c r="H26" t="str">
         <f>C21</f>
-        <v>$class molecule</v>
+        <v>$class protein complex</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -1487,13 +1487,13 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -1502,7 +1502,7 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -1513,25 +1513,25 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G28" t="s">
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -1543,22 +1543,22 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N29" t="str">
         <f>C10</f>
@@ -1567,13 +1567,13 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -1582,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -1594,25 +1594,25 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
         <v>56</v>
       </c>
-      <c r="D31" t="s">
-        <v>70</v>
-      </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G31" t="s">
         <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -1624,33 +1624,33 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
         <v>8</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -1660,34 +1660,34 @@
       </c>
       <c r="H33" t="str">
         <f>C32</f>
-        <v>mutant $class molecule</v>
+        <v>mutant $class protein complex</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
       </c>
       <c r="H34" t="str">
         <f>C33</f>
-        <v>mutant $taxon-label $class molecule</v>
+        <v>mutant $taxon-label $class protein complex</v>
       </c>
       <c r="O34" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/src/mro/templates.xlsx
+++ b/src/mro/templates.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="17240" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="18820" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="86">
   <si>
     <t>Branch</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>$molecule protein complex</t>
+  </si>
+  <si>
+    <t>Depth</t>
   </si>
 </sst>
 </file>
@@ -322,8 +325,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -414,7 +425,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="95">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -458,6 +469,10 @@
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -501,6 +516,10 @@
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -832,15 +851,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
@@ -855,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
